--- a/samples/5_styles/exported_file.xlsx
+++ b/samples/5_styles/exported_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
-    <t>Date: 05-10-2018 - Department: Sales department</t>
+    <t>Date: 06-01-2026 - Department: Sales department</t>
   </si>
   <si>
     <t>Report on managers:</t>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="3">
     <font>
@@ -145,8 +145,10 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -154,8 +156,10 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="14"/>
-      <color rgb="FF3B3B38"/>
+      <color rgb="FF4B462A"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -163,22 +167,18 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -188,7 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -200,7 +200,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -214,36 +220,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +249,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +287,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -328,7 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -363,7 +355,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="M8" sqref="M8"/>
@@ -559,7 +550,7 @@
     <col min="7" max="7" width="6.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -567,7 +558,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="4" spans="1:14" customHeight="1" ht="18.75">
+    <row r="4" spans="1:35" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -575,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -616,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -657,7 +648,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -698,7 +689,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -739,7 +730,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -753,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -768,26 +759,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -799,23 +781,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -827,17 +800,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>